--- a/DataOriginal.xlsx
+++ b/DataOriginal.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juang\OneDrive\Documentos\Universidad\Semestre 8\Programación P&amp;D\Parcial\Backend\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juang\OneDrive\Documentos\Universidad\Semestre 8\Programación P&amp;D\Parcial\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0048B77-28AD-45CE-B63F-36770DC2231E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F295ABB-4CA9-4803-8CD5-0AF18832D927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{902542B6-44ED-49DD-9273-337D2FFA3F71}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
   <si>
     <t>Id</t>
   </si>
@@ -139,85 +139,127 @@
     <t>Calle #62 N° 41 - 34</t>
   </si>
   <si>
-    <t>Pastilla A</t>
-  </si>
-  <si>
-    <t>Crema B</t>
-  </si>
-  <si>
-    <t>Inyección C</t>
-  </si>
-  <si>
-    <t>Pastilla B</t>
-  </si>
-  <si>
-    <t>Crema C</t>
-  </si>
-  <si>
-    <t>Inyección para tal cosa</t>
-  </si>
-  <si>
-    <t>Pastilla A de 42gr</t>
-  </si>
-  <si>
-    <t>Crema B de 92ml</t>
-  </si>
-  <si>
-    <t>Pastilla B de 39gr</t>
-  </si>
-  <si>
-    <t>Crema C de 73ml</t>
-  </si>
-  <si>
     <t>Cada 5 horas</t>
   </si>
   <si>
     <t>Cada 2 horas</t>
   </si>
   <si>
-    <t>Cada 8 horas</t>
-  </si>
-  <si>
-    <t>Cada 22 horas</t>
-  </si>
-  <si>
-    <t>Cada mes</t>
-  </si>
-  <si>
     <t>Lulu</t>
   </si>
   <si>
     <t>Firulais</t>
   </si>
   <si>
-    <t>Michi</t>
-  </si>
-  <si>
     <t>Yuumi</t>
   </si>
   <si>
-    <t>Laika</t>
-  </si>
-  <si>
     <t>Cheems</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
+    <t>Antipulgas</t>
+  </si>
+  <si>
+    <t>Elimina microfilariasis y previene la enfermedad</t>
+  </si>
+  <si>
+    <t>Bonavit X 120 Ml</t>
+  </si>
+  <si>
+    <t>Vitaminas del complejo b y minerales.</t>
+  </si>
+  <si>
+    <t>Extracto seco de lechuga, Vitamina E</t>
+  </si>
+  <si>
+    <t>Marboquin</t>
+  </si>
+  <si>
+    <t>Tratamientos de enfermedades bacterianas</t>
+  </si>
+  <si>
+    <t>50mg</t>
+  </si>
+  <si>
+    <t>120 Ml</t>
+  </si>
+  <si>
+    <t>Artri Tabs</t>
+  </si>
+  <si>
+    <t>45 Nuggets</t>
+  </si>
+  <si>
+    <t>Aporta protectores articulares como el condroitin y glucosamina.</t>
+  </si>
+  <si>
+    <t>Alzer Pets Fco</t>
+  </si>
+  <si>
+    <t>Ragnar</t>
+  </si>
+  <si>
+    <t>Gato 🐈‍⬛</t>
+  </si>
+  <si>
+    <t>1,5 años</t>
+  </si>
+  <si>
+    <t>4 Kg</t>
+  </si>
+  <si>
+    <t>Perro 🐕</t>
+  </si>
+  <si>
+    <t>Perro 🐩</t>
+  </si>
+  <si>
+    <t>Junior</t>
+  </si>
+  <si>
+    <t>Tiburon 🦈</t>
+  </si>
+  <si>
+    <t>2 años</t>
+  </si>
+  <si>
+    <t>3 años</t>
+  </si>
+  <si>
+    <t>1 año</t>
+  </si>
+  <si>
+    <t>4 años</t>
+  </si>
+  <si>
+    <t>5 años</t>
+  </si>
+  <si>
+    <t>3 Kg</t>
+  </si>
+  <si>
+    <t>6 Kg</t>
+  </si>
+  <si>
+    <t>1 Kg</t>
+  </si>
+  <si>
+    <t>5 Kg</t>
+  </si>
+  <si>
+    <t>770 Kg</t>
+  </si>
+  <si>
+    <t>Duque</t>
+  </si>
+  <si>
+    <t>Cerdo 🐖</t>
+  </si>
+  <si>
+    <t>46 años</t>
+  </si>
+  <si>
+    <t>82 Kg</t>
   </si>
 </sst>
 </file>
@@ -261,13 +303,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -586,7 +631,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,7 +740,7 @@
         <v>7011423</v>
       </c>
       <c r="F5" s="1">
-        <v>4</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -726,14 +771,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9621BF3-A651-461C-9B80-317CE12421A2}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -762,16 +808,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="1">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>25</v>
+        <v>57</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="F2" s="1">
         <v>1.2</v>
@@ -782,16 +828,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>46</v>
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="F3" s="1">
         <v>2.2999999999999998</v>
@@ -802,16 +848,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>29</v>
+        <v>53</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="F4" s="1">
         <v>4.5</v>
@@ -822,16 +868,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>31</v>
+        <v>53</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="F5" s="1">
         <v>1.5</v>
@@ -842,16 +888,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>41</v>
+        <v>56</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
@@ -862,19 +908,39 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="1">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1">
-        <v>42</v>
+      <c r="D7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="F7" s="1">
         <v>4.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>
@@ -887,13 +953,13 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:D19"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="59.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -916,13 +982,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
         <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -930,13 +996,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
         <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -944,10 +1010,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>47</v>
@@ -958,13 +1024,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -972,13 +1038,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
